--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -20,148 +15,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$K$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -511,12 +370,43 @@
   <si>
     <t>Create date: 12/01/2016</t>
   </si>
+  <si>
+    <t>Reviewer: Lê Phát Danh</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Chưa đánh số các cột trên lưới</t>
+  </si>
+  <si>
+    <t>Unnecessary</t>
+  </si>
+  <si>
+    <t>Thiếu UserID</t>
+  </si>
+  <si>
+    <t>Bản chuẩn, không sử dụng customerIndex</t>
+  </si>
+  <si>
+    <t>Không sử dụng customerIndex</t>
+  </si>
+  <si>
+    <t>Màn hình này không có xử lý checkInput, mô tả trong sheet [Form Func Spec] là được.</t>
+  </si>
+  <si>
+    <t>Định nghĩa sai cột [Data Type Name]</t>
+  </si>
+  <si>
+    <t>- Raise Control, Event định nghĩa sai
+- @SQL0002, @SQL0003 chưa định nghĩa @DivisionID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,19 +438,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -749,12 +626,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -835,25 +712,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,7 +1146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,10 +1178,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1333,7 +1212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1509,14 +1387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,7 +1559,7 @@
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="45" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="47"/>
@@ -1783,9 +1661,11 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1815,9 +1695,13 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1847,7 +1731,9 @@
         <v>111</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1879,7 +1765,9 @@
         <v>111</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1909,7 +1797,9 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -1939,7 +1829,9 @@
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -1973,7 +1865,9 @@
         <v>111</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2810,16 +2704,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,7 +2874,7 @@
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="45" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="47"/>
@@ -3083,7 +2976,9 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3117,7 +3012,9 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3147,7 +3044,9 @@
         <v>111</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3179,7 +3078,9 @@
         <v>111</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3207,9 +3108,13 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -3235,7 +3140,9 @@
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3265,7 +3172,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3295,7 +3204,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -3325,7 +3236,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -3357,7 +3270,9 @@
         <v>111</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -3389,7 +3304,9 @@
         <v>111</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -3419,7 +3336,9 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3451,7 +3370,9 @@
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3483,7 +3404,9 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3517,7 +3440,9 @@
         <v>111</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3551,7 +3476,9 @@
         <v>111</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3583,7 +3510,9 @@
       <c r="F26" s="15"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3615,7 +3544,9 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3647,7 +3578,9 @@
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -4126,16 +4059,15 @@
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4297,7 +4229,7 @@
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="45" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="47"/>
@@ -4399,7 +4331,9 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -4431,7 +4365,9 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -4463,9 +4399,13 @@
         <v>111</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -4495,7 +4435,9 @@
         <v>111</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -4529,9 +4471,13 @@
         <v>111</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4563,7 +4509,9 @@
         <v>111</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -4627,7 +4575,9 @@
         <v>111</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -4659,7 +4609,9 @@
         <v>111</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4693,9 +4645,13 @@
         <v>111</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4721,7 +4677,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4755,9 +4713,13 @@
         <v>111</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4771,7 +4733,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" ht="75">
       <c r="B22" s="9">
         <v>11</v>
       </c>
@@ -4789,9 +4751,13 @@
         <v>111</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="59" t="s">
+        <v>123</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -4819,7 +4785,9 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -4849,7 +4817,9 @@
       <c r="F24" s="13"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -4883,7 +4853,9 @@
         <v>111</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -4913,7 +4885,9 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -4943,7 +4917,9 @@
       <c r="F27" s="14"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -4975,7 +4951,9 @@
         <v>111</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -5005,7 +4983,9 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -5035,7 +5015,9 @@
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -5065,7 +5047,9 @@
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -5097,7 +5081,9 @@
       <c r="F32" s="14"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -5503,16 +5489,15 @@
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6687,6 +6672,5 @@
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -405,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -709,6 +714,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -801,9 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1178,9 +1183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,6 +1218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1387,14 +1394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,16 +1429,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1440,28 +1447,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1503,94 +1510,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1657,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1686,7 +1693,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1698,7 +1705,9 @@
       <c r="I11" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K11" s="11" t="s">
         <v>116</v>
       </c>
@@ -1722,7 +1731,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1756,7 +1765,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1799,7 @@
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +1831,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -1832,7 +1841,9 @@
       <c r="I15" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -1868,7 +1879,9 @@
       <c r="I16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2708,11 +2721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2739,16 +2752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2757,28 +2770,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2818,94 +2831,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3014,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -3035,7 +3048,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="18" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3082,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
@@ -3101,7 +3114,7 @@
       <c r="C14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="18" t="s">
         <v>103</v>
       </c>
@@ -3111,7 +3124,9 @@
       <c r="I14" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K14" s="11" t="s">
         <v>118</v>
       </c>
@@ -3133,7 +3148,7 @@
       <c r="C15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
@@ -3165,7 +3180,7 @@
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3212,7 @@
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3222,9 @@
       <c r="I17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -3229,7 +3246,7 @@
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="18" t="s">
         <v>7</v>
       </c>
@@ -3261,7 +3278,7 @@
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3290,9 @@
       <c r="I19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -3295,7 +3314,7 @@
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="18" t="s">
         <v>64</v>
       </c>
@@ -3329,7 +3348,7 @@
       <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3498,9 @@
       <c r="I25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -4063,11 +4084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F20" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4094,16 +4115,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4112,28 +4133,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4173,94 +4194,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4341,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4356,7 +4377,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
@@ -4390,7 +4411,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4423,9 @@
       <c r="I12" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K12" s="11" t="s">
         <v>119</v>
       </c>
@@ -4426,7 +4449,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="11" t="s">
         <v>57</v>
       </c>
@@ -4474,7 +4497,9 @@
       <c r="I14" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K14" s="11" t="s">
         <v>120</v>
       </c>
@@ -4498,7 +4523,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4534,7 +4559,7 @@
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="11" t="s">
         <v>45</v>
       </c>
@@ -4564,7 +4589,7 @@
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -4600,7 +4625,7 @@
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="13" t="s">
         <v>80</v>
       </c>
@@ -4634,7 +4659,7 @@
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -4648,7 +4673,9 @@
       <c r="I19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K19" s="11" t="s">
         <v>121</v>
       </c>
@@ -4670,7 +4697,7 @@
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="26" t="s">
         <v>97</v>
       </c>
@@ -4716,7 +4743,9 @@
       <c r="I21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K21" s="11" t="s">
         <v>122</v>
       </c>
@@ -4740,7 +4769,7 @@
       <c r="C22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -4754,8 +4783,10 @@
       <c r="I22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="59" t="s">
+      <c r="J22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="28" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="11"/>
@@ -4778,7 +4809,7 @@
       <c r="C23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
@@ -4810,7 +4841,7 @@
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="11" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4873,7 @@
       <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="54" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -4878,7 +4909,7 @@
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="13" t="s">
         <v>59</v>
       </c>
@@ -4910,7 +4941,7 @@
       <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="13" t="s">
         <v>69</v>
       </c>
@@ -4942,7 +4973,7 @@
       <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="13" t="s">
         <v>60</v>
       </c>
@@ -4976,7 +5007,7 @@
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
@@ -5008,7 +5039,7 @@
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="14" t="s">
         <v>74</v>
       </c>
@@ -5040,7 +5071,7 @@
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="23" t="s">
         <v>81</v>
       </c>
@@ -5493,7 +5524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
@@ -5523,15 +5554,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5540,26 +5571,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5596,89 +5627,89 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="42" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="42" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="42" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="45" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="45" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="45" t="s">
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="45" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="45" t="s">
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5735,7 +5766,7 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5764,7 +5795,7 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
@@ -5791,7 +5822,7 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
@@ -5818,7 +5849,7 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="13" t="s">
         <v>78</v>
       </c>
@@ -5845,7 +5876,7 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="11" t="s">
         <v>94</v>
       </c>
@@ -5872,7 +5903,7 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="13" t="s">
         <v>95</v>
       </c>
@@ -5899,7 +5930,7 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="13" t="s">
         <v>96</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -18,14 +13,15 @@
     <sheet name="Others" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Database!$A$1:$AE$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$AE$44</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -406,11 +402,14 @@
     <t>- Raise Control, Event định nghĩa sai
 - @SQL0002, @SQL0003 chưa định nghĩa @DivisionID</t>
   </si>
+  <si>
+    <t>StationID kiểu dữ liệu và varchar(50)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -631,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,6 +716,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -757,27 +780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,7 +1153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1183,10 +1185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,7 +1219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1394,14 +1394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,29 +1416,30 @@
     <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
     <col min="9" max="10" width="10" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="10" style="3" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1446,35 +1447,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15.75">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="B4" s="4" t="s">
         <v>113</v>
       </c>
@@ -1485,7 +1486,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +1499,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1509,95 +1510,99 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:25">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="X7" s="31"/>
+      <c r="Y7" s="32"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+    </row>
+    <row r="9" spans="1:25" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1614,50 +1619,56 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="V9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="8" t="s">
+      <c r="Y9" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1685,15 +1696,17 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1722,16 +1735,20 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="W11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1757,15 +1774,17 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" ht="45">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" ht="45">
       <c r="B13" s="9">
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1791,15 +1810,17 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" ht="30">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="30">
       <c r="B14" s="9">
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1823,15 +1844,17 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23" ht="30">
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="30">
       <c r="B15" s="9">
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -1856,9 +1879,13 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="W15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="B16" s="9">
         <v>7</v>
       </c>
@@ -1894,9 +1921,13 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" ht="30">
+      <c r="W16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" ht="30">
       <c r="B17" s="9">
         <v>8</v>
       </c>
@@ -1927,8 +1958,10 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" spans="2:25">
       <c r="B18" s="9">
         <v>9</v>
       </c>
@@ -1959,8 +1992,10 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" spans="2:25">
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -1991,8 +2026,10 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" spans="2:25">
       <c r="B20" s="9">
         <v>11</v>
       </c>
@@ -2023,8 +2060,10 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25">
       <c r="B21" s="9">
         <v>12</v>
       </c>
@@ -2055,8 +2094,10 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="9">
         <v>13</v>
       </c>
@@ -2087,8 +2128,10 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" ht="27.75" customHeight="1">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="2:25" ht="27.75" customHeight="1">
       <c r="B23" s="9">
         <v>14</v>
       </c>
@@ -2119,8 +2162,10 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24" s="9">
         <v>15</v>
       </c>
@@ -2145,8 +2190,10 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25" s="9">
         <v>16</v>
       </c>
@@ -2171,8 +2218,10 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="15" customHeight="1">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="2:25" ht="15" customHeight="1">
       <c r="B26" s="9">
         <v>17</v>
       </c>
@@ -2197,8 +2246,10 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="9">
         <v>18</v>
       </c>
@@ -2223,8 +2274,10 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="9">
         <v>19</v>
       </c>
@@ -2249,8 +2302,10 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+    </row>
+    <row r="29" spans="2:25">
       <c r="B29" s="9">
         <v>20</v>
       </c>
@@ -2275,8 +2330,10 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+    </row>
+    <row r="30" spans="2:25">
       <c r="B30" s="9">
         <v>21</v>
       </c>
@@ -2301,8 +2358,10 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="2:25">
       <c r="B31" s="9">
         <v>22</v>
       </c>
@@ -2327,8 +2386,10 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" spans="2:25">
       <c r="B32" s="9">
         <v>23</v>
       </c>
@@ -2353,8 +2414,10 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+    </row>
+    <row r="33" spans="2:25">
       <c r="B33" s="9">
         <v>24</v>
       </c>
@@ -2379,8 +2442,10 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+    </row>
+    <row r="34" spans="2:25">
       <c r="B34" s="9">
         <v>25</v>
       </c>
@@ -2405,8 +2470,10 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+    </row>
+    <row r="35" spans="2:25">
       <c r="B35" s="9">
         <v>26</v>
       </c>
@@ -2431,8 +2498,10 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+    </row>
+    <row r="36" spans="2:25">
       <c r="B36" s="9">
         <v>27</v>
       </c>
@@ -2457,8 +2526,10 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" spans="2:25" ht="15" customHeight="1">
       <c r="B37" s="9">
         <v>28</v>
       </c>
@@ -2483,8 +2554,10 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+    </row>
+    <row r="38" spans="2:25">
       <c r="B38" s="9">
         <v>29</v>
       </c>
@@ -2509,8 +2582,10 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" spans="2:25">
       <c r="B39" s="9">
         <v>30</v>
       </c>
@@ -2535,8 +2610,10 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+    </row>
+    <row r="40" spans="2:25">
       <c r="B40" s="9">
         <v>31</v>
       </c>
@@ -2561,8 +2638,10 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+    </row>
+    <row r="41" spans="2:25">
       <c r="B41" s="9">
         <v>32</v>
       </c>
@@ -2587,8 +2666,10 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+    </row>
+    <row r="42" spans="2:25">
       <c r="B42" s="9">
         <v>33</v>
       </c>
@@ -2613,8 +2694,10 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+    </row>
+    <row r="43" spans="2:25">
       <c r="B43" s="9">
         <v>34</v>
       </c>
@@ -2639,8 +2722,10 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+    </row>
+    <row r="44" spans="2:25">
       <c r="B44" s="9">
         <v>35</v>
       </c>
@@ -2665,21 +2750,13 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
+  <mergeCells count="22">
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="B1:D3"/>
     <mergeCell ref="E1:I3"/>
@@ -2688,29 +2765,26 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G40 I10:J40 L10:M40 O10:P40 R10:S40 U10:V40">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43 T10:U43 W10:X43">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41 I41:J41 L41:M41 O41:P41 R41:S41 U41:V41">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>G41="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42 I42:J42 L42:M42 O42:P42 R42:S42 U42:V42">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>G42="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43 I43:J43 L43:M43 O43:P43 R43:S43 U43:V43">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>G43="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 G10:G43 R10:S43 I10:J43 L10:M43 O10:P43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:U43 W10:X43 G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2721,11 +2795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2748,20 +2822,22 @@
     <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2769,35 +2845,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2884,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2819,7 +2895,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2830,95 +2906,105 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:26">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2970,8 +3056,17 @@
       <c r="W9" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -3006,15 +3101,18 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -3042,13 +3140,16 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" ht="45">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" ht="45">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="18" t="s">
         <v>87</v>
       </c>
@@ -3074,15 +3175,18 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" ht="90">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26" ht="90">
       <c r="B13" s="9">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
@@ -3108,13 +3212,16 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="18" t="s">
         <v>103</v>
       </c>
@@ -3142,13 +3249,18 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
@@ -3172,15 +3284,18 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
@@ -3204,15 +3319,18 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
@@ -3238,15 +3356,20 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="18" t="s">
         <v>7</v>
       </c>
@@ -3270,15 +3393,18 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
@@ -3306,15 +3432,22 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="18" t="s">
         <v>64</v>
       </c>
@@ -3340,15 +3473,18 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="9">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
@@ -3372,8 +3508,11 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="2:26">
       <c r="B22" s="9">
         <v>10</v>
       </c>
@@ -3406,8 +3545,11 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" ht="30">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="2:26" ht="30">
       <c r="B23" s="9">
         <v>11</v>
       </c>
@@ -3440,8 +3582,11 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23" ht="27.75" customHeight="1">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26" ht="27.75" customHeight="1">
       <c r="B24" s="9">
         <v>12</v>
       </c>
@@ -3476,8 +3621,11 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23" ht="30">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="2:26" ht="30">
       <c r="B25" s="9">
         <v>13</v>
       </c>
@@ -3514,8 +3662,13 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="30">
+      <c r="X25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="2:26" ht="30">
       <c r="B26" s="9">
         <v>14</v>
       </c>
@@ -3548,8 +3701,11 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="2:26" ht="15" customHeight="1">
       <c r="B27" s="9">
         <v>15</v>
       </c>
@@ -3582,8 +3738,11 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23" ht="30">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" ht="30">
       <c r="B28" s="9">
         <v>16</v>
       </c>
@@ -3616,8 +3775,11 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26">
       <c r="B29" s="9">
         <v>17</v>
       </c>
@@ -3650,8 +3812,11 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" s="9">
         <v>18</v>
       </c>
@@ -3684,8 +3849,11 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
+    <row r="31" spans="2:26">
       <c r="B31" s="9">
         <v>19</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" spans="2:26">
       <c r="B32" s="9">
         <v>20</v>
       </c>
@@ -3744,8 +3915,11 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33" s="9">
         <v>21</v>
       </c>
@@ -3770,8 +3944,11 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34" s="9">
         <v>22</v>
       </c>
@@ -3796,8 +3973,11 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" s="9">
         <v>23</v>
       </c>
@@ -3822,8 +4002,11 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36" s="9">
         <v>24</v>
       </c>
@@ -3848,8 +4031,11 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37" s="9">
         <v>25</v>
       </c>
@@ -3874,8 +4060,11 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23" ht="15" customHeight="1">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="2:26" ht="15" customHeight="1">
       <c r="B38" s="9">
         <v>26</v>
       </c>
@@ -3900,8 +4089,11 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" s="9">
         <v>27</v>
       </c>
@@ -3926,8 +4118,11 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26">
       <c r="B40" s="9">
         <v>28</v>
       </c>
@@ -3952,8 +4147,11 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41" s="9">
         <v>29</v>
       </c>
@@ -3978,8 +4176,11 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42" s="9">
         <v>30</v>
       </c>
@@ -4004,8 +4205,11 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" s="9">
         <v>31</v>
       </c>
@@ -4030,18 +4234,14 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="22">
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
@@ -4053,24 +4253,23 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G41 I10:J41 L10:M41 O10:P41 R10:S41 U10:V41">
-    <cfRule type="expression" dxfId="9" priority="4">
+  <conditionalFormatting sqref="G10:G43 I10:J43 L10:M43 O10:P43 R10:S43 U10:V43 X10:Y43">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42 I42:J42 L42:M42 O42:P42 R42:S42 U42:V42">
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>G42="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43 I43:J43 L43:M43 O43:P43 R43:S43 U43:V43">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>G43="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 G10:G43 R10:S43 I10:J43 L10:M43 O10:P43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 X10:Y43 O10:P43 L10:M43 I10:J43 R10:S43 G10:G43">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4084,11 +4283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F20" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E14" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4111,56 +4310,64 @@
     <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -4171,7 +4378,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -4182,7 +4389,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -4193,95 +4400,105 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:26">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -4333,15 +4550,24 @@
       <c r="W9" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4369,15 +4595,18 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
@@ -4403,15 +4632,18 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
@@ -4441,15 +4673,20 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="B13" s="9">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="11" t="s">
         <v>57</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" ht="33.75" customHeight="1">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:26" ht="33.75" customHeight="1">
       <c r="B14" s="9">
         <v>4</v>
       </c>
@@ -4515,15 +4755,20 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="B15" s="9">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4551,15 +4796,18 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="B16" s="9">
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="11" t="s">
         <v>45</v>
       </c>
@@ -4581,15 +4829,18 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" ht="30">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26" ht="30">
       <c r="B17" s="9">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="55" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -4617,15 +4868,18 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23" ht="30">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26" ht="30">
       <c r="B18" s="9">
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13" t="s">
         <v>80</v>
       </c>
@@ -4651,15 +4905,18 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23" ht="30">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26" ht="30">
       <c r="B19" s="9">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -4691,13 +4948,18 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="26" t="s">
         <v>97</v>
       </c>
@@ -4721,8 +4983,11 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="9">
         <v>10</v>
       </c>
@@ -4761,15 +5026,20 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23" ht="75">
+      <c r="X21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="2:26" ht="75">
       <c r="B22" s="9">
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -4801,15 +5071,20 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="X22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="28"/>
+    </row>
+    <row r="23" spans="2:26">
       <c r="B23" s="9">
         <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
@@ -4833,15 +5108,18 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26">
       <c r="B24" s="9">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="11" t="s">
         <v>68</v>
       </c>
@@ -4865,15 +5143,18 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="2:26">
       <c r="B25" s="9">
         <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -4901,15 +5182,18 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="2:26">
       <c r="B26" s="9">
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="13" t="s">
         <v>59</v>
       </c>
@@ -4933,15 +5217,18 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" ht="30">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="2:26" ht="30">
       <c r="B27" s="9">
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="13" t="s">
         <v>69</v>
       </c>
@@ -4965,15 +5252,18 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23" ht="30">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" ht="30">
       <c r="B28" s="9">
         <v>18</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="13" t="s">
         <v>60</v>
       </c>
@@ -4999,15 +5289,18 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23" ht="35.25" customHeight="1">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26" ht="35.25" customHeight="1">
       <c r="B29" s="9">
         <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
@@ -5031,15 +5324,18 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" s="9">
         <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="14" t="s">
         <v>74</v>
       </c>
@@ -5063,15 +5359,18 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23" ht="30">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
+    <row r="31" spans="2:26" ht="30">
       <c r="B31" s="9">
         <v>21</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="56"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="23" t="s">
         <v>81</v>
       </c>
@@ -5095,8 +5394,11 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" spans="2:26">
       <c r="B32" s="9">
         <v>22</v>
       </c>
@@ -5129,8 +5431,11 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33" s="9">
         <v>23</v>
       </c>
@@ -5154,8 +5459,11 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34" s="9">
         <v>24</v>
       </c>
@@ -5180,8 +5488,11 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" s="9">
         <v>25</v>
       </c>
@@ -5206,8 +5517,11 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36" s="9">
         <v>26</v>
       </c>
@@ -5232,8 +5546,11 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37" s="9">
         <v>27</v>
       </c>
@@ -5258,8 +5575,11 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="2:26">
       <c r="B38" s="9">
         <v>28</v>
       </c>
@@ -5284,8 +5604,11 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" s="9">
         <v>29</v>
       </c>
@@ -5310,8 +5633,11 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23" ht="15" customHeight="1">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26" ht="15" customHeight="1">
       <c r="B40" s="9">
         <v>30</v>
       </c>
@@ -5335,8 +5661,11 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41" s="9">
         <v>31</v>
       </c>
@@ -5361,8 +5690,11 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42" s="9">
         <v>32</v>
       </c>
@@ -5387,8 +5719,11 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" s="9">
         <v>33</v>
       </c>
@@ -5413,8 +5748,11 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+    </row>
+    <row r="44" spans="2:26">
       <c r="B44" s="9">
         <v>34</v>
       </c>
@@ -5439,8 +5777,11 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-    </row>
-    <row r="45" spans="2:23">
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="2:26">
       <c r="B45" s="9">
         <v>35</v>
       </c>
@@ -5465,24 +5806,14 @@
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="27">
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -5493,24 +5824,29 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G43 I10:J43 L10:M43 O10:P43 R10:S43 U10:V43">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="G10:G45 I10:J45 L10:M45 O10:P45 R10:S45 U10:V45 X10:Y45">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44 I44:J44 L44:M44 O44:P44 R44:S44 U44:V44">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>G44="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 I45:J45 L45:M45 O45:P45 R45:S45 U45:V45">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>G45="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:P45 L10:M45 I10:J45 R10:S45 G10:G45 U10:V45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:P45 X10:Y45 U10:V45 G10:G45 R10:S45 I10:J45 L10:M45">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5524,7 +5860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
@@ -5554,15 +5890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5571,26 +5907,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5627,89 +5963,89 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="43" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="43" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="43" t="s">
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="46" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="46" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="46" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="46" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5766,7 +6102,7 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5795,7 +6131,7 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
@@ -5822,7 +6158,7 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
@@ -5849,7 +6185,7 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="13" t="s">
         <v>78</v>
       </c>
@@ -5876,7 +6212,7 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="11" t="s">
         <v>94</v>
       </c>
@@ -5903,7 +6239,7 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="13" t="s">
         <v>95</v>
       </c>
@@ -5930,7 +6266,7 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
@@ -6652,15 +6988,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6671,24 +6998,33 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>F10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41:I41 K41:L41 N41:O41 Q41:R41 T41:U41">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>F41="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 H42:I42 K42:L42 N42:O42 Q42:R42 T42:U42">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>F42="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43 H43:I43 K43:L43 N43:O43 Q43:R43 T43:U43">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>F43="NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_BAChecklistERP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="653" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -409,7 +414,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -737,9 +742,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -782,6 +784,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -817,42 +822,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1153,7 +1123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,9 +1155,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,6 +1190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1394,14 +1366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1430,16 +1402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1448,28 +1420,28 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1511,25 +1483,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -1559,11 +1531,11 @@
       <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>112</v>
       </c>
@@ -1598,11 +1570,11 @@
     </row>
     <row r="9" spans="1:25" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1640,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1706,7 +1678,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1748,7 +1720,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1784,7 +1756,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1820,7 +1792,7 @@
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1826,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2755,6 +2727,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="D10:D15"/>
@@ -2771,15 +2749,9 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43 T10:U43 W10:X43">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2795,11 +2767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2828,16 +2800,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2846,28 +2818,28 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2907,25 +2879,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -2958,11 +2930,11 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>16</v>
       </c>
@@ -3000,11 +2972,11 @@
     </row>
     <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3407,9 @@
       <c r="X19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="Z19" s="11" t="s">
         <v>124</v>
       </c>
@@ -4240,6 +4214,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="D11:D21"/>
@@ -4253,18 +4236,9 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 I10:J43 L10:M43 O10:P43 R10:S43 U10:V43 X10:Y43">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4283,11 +4257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E14" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F6" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4316,16 +4290,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4340,28 +4314,28 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4401,25 +4375,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -4452,11 +4426,11 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>16</v>
       </c>
@@ -4494,11 +4468,11 @@
     </row>
     <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5029,7 +5003,9 @@
       <c r="X21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="2:26" ht="75">
@@ -5812,6 +5788,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="U7:W7"/>
@@ -5824,24 +5815,9 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G45 I10:J45 L10:M45 O10:P45 R10:S45 U10:V45 X10:Y45">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5860,10 +5836,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5890,15 +5866,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5907,26 +5883,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5963,22 +5939,22 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
@@ -6006,10 +5982,10 @@
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="33" t="s">
         <v>16</v>
       </c>
@@ -6042,10 +6018,10 @@
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -6988,6 +6964,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6998,33 +6983,24 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41:I41 K41:L41 N41:O41 Q41:R41 T41:U41">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F41="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 H42:I42 K42:L42 N42:O42 Q42:R42 T42:U42">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F42="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43 H43:I43 K43:L43 N43:O43 Q43:R43 T43:U43">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>F43="NG"</formula>
     </cfRule>
   </conditionalFormatting>
